--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5418" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5495" uniqueCount="569">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:36:58+00:00</t>
+    <t>2021-12-15T14:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1109,6 +1109,9 @@
     <t>bPK</t>
   </si>
   <si>
+    <t>.id[@root="1.2.40.0.10.2.1.1.149"]</t>
+  </si>
+  <si>
     <t>NI</t>
   </si>
   <si>
@@ -1302,10 +1305,33 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
     <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>deceasedBoolean</t>
+  </si>
+  <si>
+    <t>.patient.sdtc:deceasedInd</t>
+  </si>
+  <si>
+    <t>deceasedDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>.patient.sdtc:deceasedTime</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -2048,7 +2074,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO145"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9696,7 +9722,7 @@
         <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66">
@@ -11030,7 +11056,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>78</v>
@@ -11147,7 +11173,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>78</v>
@@ -11488,7 +11514,7 @@
         <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>296</v>
@@ -11504,7 +11530,7 @@
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>78</v>
@@ -12553,7 +12579,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>78</v>
@@ -12633,7 +12659,7 @@
         <v>246</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>78</v>
@@ -12744,7 +12770,7 @@
         <v>78</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92">
@@ -14078,7 +14104,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>78</v>
@@ -14195,7 +14221,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>78</v>
@@ -14536,7 +14562,7 @@
         <v>99</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>296</v>
@@ -14978,7 +15004,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15004,67 +15030,67 @@
         <v>213</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Q111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
@@ -15079,13 +15105,13 @@
         <v>97</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -15099,7 +15125,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15122,19 +15148,19 @@
         <v>86</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>78</v>
@@ -15183,7 +15209,7 @@
         <v>78</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
@@ -15198,16 +15224,16 @@
         <v>97</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15218,7 +15244,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15241,19 +15267,19 @@
         <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>78</v>
@@ -15302,7 +15328,7 @@
         <v>78</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>76</v>
@@ -15317,16 +15343,16 @@
         <v>97</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15337,7 +15363,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15363,16 +15389,16 @@
         <v>105</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>78</v>
@@ -15400,10 +15426,10 @@
         <v>265</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>78</v>
@@ -15421,7 +15447,7 @@
         <v>78</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -15436,16 +15462,16 @@
         <v>97</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>78</v>
@@ -15456,7 +15482,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15479,19 +15505,19 @@
         <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>78</v>
@@ -15540,7 +15566,7 @@
         <v>78</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>76</v>
@@ -15555,19 +15581,19 @@
         <v>97</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15575,7 +15601,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15598,19 +15624,19 @@
         <v>86</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>78</v>
@@ -15647,19 +15673,17 @@
         <v>78</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="AB116" s="2"/>
       <c r="AC116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
@@ -15674,7 +15698,7 @@
         <v>97</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>146</v>
@@ -15683,7 +15707,7 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>78</v>
@@ -15694,9 +15718,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B117" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="C117" t="s" s="2">
         <v>78</v>
       </c>
@@ -15705,31 +15731,31 @@
         <v>76</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>419</v>
+        <v>213</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>78</v>
@@ -15778,44 +15804,46 @@
         <v>78</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>424</v>
+        <v>97</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="C118" t="s" s="2">
         <v>78</v>
       </c>
@@ -15830,23 +15858,25 @@
         <v>78</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N118" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>78</v>
@@ -15871,13 +15901,13 @@
         <v>78</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>78</v>
@@ -15895,7 +15925,7 @@
         <v>78</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>76</v>
@@ -15910,27 +15940,27 @@
         <v>97</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>434</v>
+        <v>146</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15941,7 +15971,7 @@
         <v>76</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -15953,19 +15983,19 @@
         <v>78</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>78</v>
@@ -16014,31 +16044,31 @@
         <v>78</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>97</v>
+        <v>432</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>78</v>
@@ -16049,7 +16079,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16060,7 +16090,7 @@
         <v>76</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16072,19 +16102,17 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>445</v>
+        <v>163</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>78</v>
@@ -16109,13 +16137,13 @@
         <v>78</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>78</v>
@@ -16133,13 +16161,13 @@
         <v>78</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16148,16 +16176,16 @@
         <v>97</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>146</v>
+        <v>442</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16168,7 +16196,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16179,7 +16207,7 @@
         <v>76</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16191,19 +16219,19 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>78</v>
@@ -16252,22 +16280,22 @@
         <v>78</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>146</v>
@@ -16276,7 +16304,7 @@
         <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16287,7 +16315,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16298,7 +16326,7 @@
         <v>76</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>78</v>
@@ -16310,16 +16338,20 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>87</v>
+        <v>453</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>143</v>
+        <v>454</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>78</v>
       </c>
@@ -16367,31 +16399,31 @@
         <v>78</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>145</v>
+        <v>452</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ122" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK122" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AK122" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16402,11 +16434,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16425,18 +16457,20 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>130</v>
+        <v>461</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>149</v>
+        <v>462</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>150</v>
+        <v>463</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
       </c>
@@ -16484,7 +16518,7 @@
         <v>78</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
@@ -16496,13 +16530,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>136</v>
+        <v>466</v>
       </c>
       <c r="AJ123" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AK123" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16519,43 +16553,39 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>78</v>
       </c>
@@ -16603,22 +16633,22 @@
         <v>78</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>78</v>
@@ -16638,11 +16668,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16661,18 +16691,18 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>468</v>
+        <v>149</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>78</v>
       </c>
@@ -16696,13 +16726,13 @@
         <v>78</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>78</v>
@@ -16720,7 +16750,7 @@
         <v>78</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>467</v>
+        <v>153</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -16732,19 +16762,19 @@
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16755,40 +16785,42 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>373</v>
+        <v>130</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>477</v>
+        <v>244</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>78</v>
@@ -16843,25 +16875,25 @@
         <v>76</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -16872,7 +16904,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16895,19 +16927,17 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>78</v>
@@ -16932,13 +16962,13 @@
         <v>78</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>78</v>
@@ -16956,7 +16986,7 @@
         <v>78</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
@@ -16971,7 +17001,7 @@
         <v>97</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>387</v>
+        <v>154</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>146</v>
@@ -16980,7 +17010,7 @@
         <v>78</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>78</v>
@@ -16991,7 +17021,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17014,17 +17044,15 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
         <v>485</v>
       </c>
@@ -17075,7 +17103,7 @@
         <v>78</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>76</v>
@@ -17084,22 +17112,22 @@
         <v>85</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>424</v>
+        <v>97</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -17110,7 +17138,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17121,7 +17149,7 @@
         <v>76</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>78</v>
@@ -17133,17 +17161,19 @@
         <v>78</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>391</v>
+        <v>488</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M129" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="N129" t="s" s="2">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17168,13 +17198,13 @@
         <v>78</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>78</v>
@@ -17192,13 +17222,13 @@
         <v>78</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>78</v>
@@ -17207,7 +17237,7 @@
         <v>97</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>146</v>
@@ -17216,7 +17246,7 @@
         <v>78</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17227,7 +17257,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17250,15 +17280,17 @@
         <v>78</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M130" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N130" t="s" s="2">
         <v>493</v>
       </c>
@@ -17309,7 +17341,7 @@
         <v>78</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>76</v>
@@ -17318,22 +17350,22 @@
         <v>85</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>494</v>
+        <v>141</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>97</v>
+        <v>432</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17344,7 +17376,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17367,16 +17399,18 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>498</v>
+        <v>392</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>78</v>
       </c>
@@ -17400,13 +17434,13 @@
         <v>78</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>78</v>
@@ -17424,7 +17458,7 @@
         <v>78</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>76</v>
@@ -17439,7 +17473,7 @@
         <v>97</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>500</v>
+        <v>398</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>146</v>
@@ -17448,7 +17482,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17459,7 +17493,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17470,7 +17504,7 @@
         <v>76</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17482,19 +17516,17 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>453</v>
+        <v>319</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>78</v>
@@ -17543,31 +17575,31 @@
         <v>78</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>507</v>
+        <v>146</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17578,7 +17610,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17601,13 +17633,13 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>144</v>
+        <v>507</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17658,7 +17690,7 @@
         <v>78</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>145</v>
+        <v>505</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>76</v>
@@ -17670,13 +17702,13 @@
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ133" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AK133" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17697,7 +17729,7 @@
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17716,18 +17748,20 @@
         <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>130</v>
+        <v>461</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>149</v>
+        <v>510</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>150</v>
+        <v>511</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>78</v>
       </c>
@@ -17775,7 +17809,7 @@
         <v>78</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>153</v>
+        <v>509</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
@@ -17787,13 +17821,13 @@
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>146</v>
+        <v>514</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17810,43 +17844,39 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>78</v>
       </c>
@@ -17894,22 +17924,22 @@
         <v>78</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>78</v>
@@ -17929,18 +17959,18 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -17952,20 +17982,18 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>512</v>
+        <v>149</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>513</v>
+        <v>150</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>78</v>
       </c>
@@ -17989,13 +18017,13 @@
         <v>78</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>78</v>
@@ -18013,31 +18041,31 @@
         <v>78</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>511</v>
+        <v>153</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>516</v>
+        <v>146</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>518</v>
+        <v>78</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>78</v>
@@ -18048,42 +18076,42 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>522</v>
+        <v>151</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>523</v>
+        <v>244</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>78</v>
@@ -18132,31 +18160,31 @@
         <v>78</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>524</v>
+        <v>128</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>526</v>
+        <v>78</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>78</v>
@@ -18167,18 +18195,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>528</v>
+        <v>78</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>78</v>
@@ -18190,18 +18218,20 @@
         <v>78</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>529</v>
+        <v>163</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>78</v>
       </c>
@@ -18225,13 +18255,13 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>78</v>
@@ -18249,13 +18279,13 @@
         <v>78</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
@@ -18264,16 +18294,16 @@
         <v>97</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>146</v>
+        <v>525</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>78</v>
@@ -18284,7 +18314,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18304,22 +18334,22 @@
         <v>78</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>78</v>
@@ -18368,7 +18398,7 @@
         <v>78</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>76</v>
@@ -18383,16 +18413,16 @@
         <v>97</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>78</v>
@@ -18403,11 +18433,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18420,26 +18450,24 @@
         <v>78</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>78</v>
       </c>
@@ -18487,7 +18515,7 @@
         <v>78</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>76</v>
@@ -18502,7 +18530,7 @@
         <v>97</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>146</v>
@@ -18511,7 +18539,7 @@
         <v>78</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>78</v>
@@ -18522,7 +18550,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18542,19 +18570,23 @@
         <v>78</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>143</v>
+        <v>544</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>78</v>
       </c>
@@ -18602,7 +18634,7 @@
         <v>78</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>145</v>
+        <v>543</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>76</v>
@@ -18614,13 +18646,13 @@
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>146</v>
+        <v>503</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>78</v>
@@ -18637,11 +18669,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18654,24 +18686,26 @@
         <v>78</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>130</v>
+        <v>461</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>149</v>
+        <v>550</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>150</v>
+        <v>551</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>78</v>
       </c>
@@ -18719,7 +18753,7 @@
         <v>78</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>153</v>
+        <v>549</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>76</v>
@@ -18731,13 +18765,13 @@
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AK142" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>78</v>
@@ -18754,43 +18788,39 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>78</v>
       </c>
@@ -18838,22 +18868,22 @@
         <v>78</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>78</v>
@@ -18873,18 +18903,18 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -18893,19 +18923,19 @@
         <v>78</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>551</v>
+        <v>130</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>552</v>
+        <v>149</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>553</v>
+        <v>150</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>554</v>
+        <v>151</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -18955,31 +18985,31 @@
         <v>78</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>550</v>
+        <v>153</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>555</v>
+        <v>78</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>78</v>
@@ -18990,39 +19020,43 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>557</v>
+        <v>472</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>78</v>
       </c>
@@ -19046,60 +19080,292 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W147" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="X145" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI145" t="s" s="2">
+      <c r="X147" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI147" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ145" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AK145" t="s" s="2">
+      <c r="AJ147" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK147" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO145" t="s" s="2">
+      <c r="AL147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO147" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T14:39:43+00:00</t>
+    <t>2021-12-15T15:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:05:59+00:00</t>
+    <t>2021-12-15T15:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T15:14:18+00:00</t>
+    <t>2022-01-20T10:16:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Profile for patient pata in Austria.</t>
+    <t>HL7® Austria FHIR® Core Profile for patient data in Austria.
+The HL7® AT Core Patient is based upon the core FHIR® Patient Resource and designed to meet the applicable patient demographic data elements in Austria. It identifies which core elements, extensions, vocabularies and value sets SHALL be present in the resource when using this profile. Note, this extension represents the common structure of Patient information within Austrian information systems.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -758,7 +759,8 @@
     <t>Patient Religion</t>
   </si>
   <si>
-    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.</t>
+    <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:16:45+00:00</t>
+    <t>2022-01-20T10:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:22:21+00:00</t>
+    <t>2022-01-20T10:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:27:00+00:00</t>
+    <t>2022-01-20T10:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:31:27+00:00</t>
+    <t>2022-01-20T10:44:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:44:52+00:00</t>
+    <t>2022-01-20T10:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:52:35+00:00</t>
+    <t>2022-01-20T10:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T10:59:42+00:00</t>
+    <t>2022-01-20T11:05:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:05:16+00:00</t>
+    <t>2022-01-20T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:15:25+00:00</t>
+    <t>2022-01-20T11:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T11:32:29+00:00</t>
+    <t>2022-01-20T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:45:34+00:00</t>
+    <t>2022-01-20T12:53:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1111,7 +1111,7 @@
     <t>bPK</t>
   </si>
   <si>
-    <t>.id[@root="1.2.40.0.10.2.1.1.149"]</t>
+    <t>.id.where(root='1.2.40.0.10.2.1.1.149')</t>
   </si>
   <si>
     <t>NI</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:53:52+00:00</t>
+    <t>2022-01-20T12:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1323,7 +1323,7 @@
     <t>deceasedBoolean</t>
   </si>
   <si>
-    <t>.patient.sdtc:deceasedInd</t>
+    <t>.patient.deceasedInd</t>
   </si>
   <si>
     <t>deceasedDateTime</t>
@@ -1333,7 +1333,7 @@
 </t>
   </si>
   <si>
-    <t>.patient.sdtc:deceasedTime</t>
+    <t>.patient.deceasedTime</t>
   </si>
   <si>
     <t>Patient.address</t>

--- a/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-6-extend-cda-mapping/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T12:57:34+00:00</t>
+    <t>2022-01-20T12:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
